--- a/inst/ae.xlsx
+++ b/inst/ae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6655F3-059A-41EC-84E3-F0A2A883B7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59241981-C70F-4860-9FDD-20B835866676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="36" windowWidth="23028" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>is_norm</t>
-  </si>
-  <si>
     <t>ast</t>
   </si>
   <si>
-    <t>cl</t>
-  </si>
-  <si>
     <t>ast_norm</t>
   </si>
   <si>
@@ -48,7 +39,16 @@
     <t>enzyme_ast</t>
   </si>
   <si>
-    <t>human_name</t>
+    <t>LBTEST</t>
+  </si>
+  <si>
+    <t>LBCLSIG</t>
+  </si>
+  <si>
+    <t>LBNRIND</t>
+  </si>
+  <si>
+    <t>LBORRES</t>
   </si>
 </sst>
 </file>
@@ -369,37 +369,37 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/inst/ae.xlsx
+++ b/inst/ae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59241981-C70F-4860-9FDD-20B835866676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820096DB-DF0C-4FE0-AAB9-DB6D56D9E039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>ast_cl</t>
   </si>
   <si>
-    <t>enzyme_ast</t>
-  </si>
-  <si>
     <t>LBTEST</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>LBORRES</t>
+  </si>
+  <si>
+    <t>Aspartate transaminase</t>
   </si>
 </sst>
 </file>
@@ -369,23 +369,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
